--- a/notas_fiscais.xlsx
+++ b/notas_fiscais.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michel Ferrão\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e1ff39f77e76d922/Projetos Python/Sistema NF/controle-nf-python-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A364530-054F-4600-A00A-F0E10475AE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{4A364530-054F-4600-A00A-F0E10475AE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{659D891E-4837-4509-888E-CCB2964344C0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{28C5DF16-DA60-4C06-BDE1-D74242D560A6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="63">
   <si>
     <t>Data
 (NF)</t>
@@ -209,6 +209,12 @@
   </si>
   <si>
     <t>CONTROLE DE NOTAS FISCAIS 2025</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>PDDE</t>
   </si>
 </sst>
 </file>
@@ -618,6 +624,41 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -630,10 +671,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="44" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -643,9 +680,6 @@
     <xf numFmtId="44" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="9" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -655,10 +689,6 @@
     <xf numFmtId="44" fontId="9" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="44" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -667,30 +697,6 @@
     </xf>
     <xf numFmtId="44" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -736,21 +742,7 @@
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -1083,7 +1075,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,38 +1096,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="28"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="31"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="19"/>
     </row>
     <row r="3" spans="1:14" ht="36" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -1201,7 +1193,9 @@
         <v>4812.38</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="I4" s="5" t="s">
         <v>13</v>
       </c>
@@ -1235,7 +1229,9 @@
         <v>5727.6</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="I5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1269,7 +1265,9 @@
         <v>8945</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1303,7 +1301,9 @@
         <v>5534.73</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="I7" s="5" t="s">
         <v>20</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>45327</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -1337,7 +1337,9 @@
         <v>5272.4</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="I8" s="5" t="s">
         <v>22</v>
       </c>
@@ -1371,7 +1373,9 @@
         <v>4123.3</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="I9" s="5" t="s">
         <v>23</v>
       </c>
@@ -1405,7 +1409,9 @@
         <v>1174.0999999999999</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="I10" s="5" t="s">
         <v>26</v>
       </c>
@@ -1439,7 +1445,9 @@
         <v>6238.43</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="I11" s="5" t="s">
         <v>29</v>
       </c>
@@ -1473,7 +1481,9 @@
         <v>2962.15</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="I12" s="5" t="s">
         <v>31</v>
       </c>
@@ -1484,7 +1494,7 @@
         <v>45412</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -1507,7 +1517,9 @@
         <v>1800</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="I13" s="5" t="s">
         <v>36</v>
       </c>
@@ -1541,7 +1553,9 @@
         <v>2800</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="I14" s="5" t="s">
         <v>40</v>
       </c>
@@ -1575,7 +1589,9 @@
         <v>4430.57</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="I15" s="5" t="s">
         <v>41</v>
       </c>
@@ -1609,7 +1625,9 @@
         <v>2407.19</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="I16" s="5" t="s">
         <v>44</v>
       </c>
@@ -1643,7 +1661,9 @@
         <v>498.83</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="I17" s="5" t="s">
         <v>46</v>
       </c>
@@ -1677,7 +1697,9 @@
         <v>1970</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="I18" s="5" t="s">
         <v>48</v>
       </c>
@@ -1692,12 +1714,12 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14" t="s">
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="11" t="s">
         <v>50</v>
       </c>
       <c r="E19" s="6"/>
@@ -1714,13 +1736,13 @@
       <c r="N19" s="43"/>
     </row>
     <row r="20" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+      <c r="A20" s="23">
         <f>SUM(F:F)</f>
         <v>58696.680000000008</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18">
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="12">
         <f>-SUMIFS(F:F,J:J,"&lt;&gt;"&amp;"",N:N,"&lt;&gt;"&amp;"Sim")</f>
         <v>0</v>
       </c>
@@ -1728,7 +1750,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="32">
         <f>SUMIF(N4:N18,"Sim",F4:F18)</f>
-        <v>58696.680000000008</v>
+        <v>50199.799999999996</v>
       </c>
       <c r="H20" s="33"/>
       <c r="I20" s="33"/>
@@ -1739,10 +1761,10 @@
       <c r="N20" s="34"/>
     </row>
     <row r="21" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="22" t="s">
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E21" s="7"/>
@@ -1757,10 +1779,10 @@
       <c r="N21" s="37"/>
     </row>
     <row r="22" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="18"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="38"/>
@@ -1781,15 +1803,15 @@
     <mergeCell ref="G19:N19"/>
   </mergeCells>
   <conditionalFormatting sqref="D20 D22">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N18">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Não">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Não">
       <formula>NOT(ISERROR(SEARCH("Não",N1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Sim">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Sim">
       <formula>NOT(ISERROR(SEARCH("Sim",N1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/notas_fiscais.xlsx
+++ b/notas_fiscais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e1ff39f77e76d922/Projetos Python/Sistema NF/controle-nf-python-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{4A364530-054F-4600-A00A-F0E10475AE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{659D891E-4837-4509-888E-CCB2964344C0}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{4A364530-054F-4600-A00A-F0E10475AE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43270241-5EF3-4F27-BB3A-A8D9C6CCC1DE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{28C5DF16-DA60-4C06-BDE1-D74242D560A6}"/>
   </bookViews>
@@ -1075,7 +1075,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1602,7 +1602,7 @@
         <v>45327</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
@@ -1710,7 +1710,7 @@
         <v>45412</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -1750,7 +1750,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="32">
         <f>SUMIF(N4:N18,"Sim",F4:F18)</f>
-        <v>50199.799999999996</v>
+        <v>43799.229999999996</v>
       </c>
       <c r="H20" s="33"/>
       <c r="I20" s="33"/>
